--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>67.77251700000001</v>
+        <v>47.23036199999999</v>
       </c>
       <c r="H2">
-        <v>203.317551</v>
+        <v>141.691086</v>
       </c>
       <c r="I2">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="J2">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.92590366666667</v>
+        <v>62.19572466666667</v>
       </c>
       <c r="N2">
-        <v>119.777711</v>
+        <v>186.587174</v>
       </c>
       <c r="O2">
-        <v>0.8537340759835568</v>
+        <v>0.9009169178676326</v>
       </c>
       <c r="P2">
-        <v>0.8537340759835568</v>
+        <v>0.9009169178676325</v>
       </c>
       <c r="Q2">
-        <v>2705.87898498953</v>
+        <v>2937.526590858996</v>
       </c>
       <c r="R2">
-        <v>24352.91086490576</v>
+        <v>26437.73931773096</v>
       </c>
       <c r="S2">
-        <v>0.3482925930351946</v>
+        <v>0.2922800945424654</v>
       </c>
       <c r="T2">
-        <v>0.3482925930351946</v>
+        <v>0.2922800945424654</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>67.77251700000001</v>
+        <v>47.23036199999999</v>
       </c>
       <c r="H3">
-        <v>203.317551</v>
+        <v>141.691086</v>
       </c>
       <c r="I3">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="J3">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.435054</v>
       </c>
       <c r="O3">
-        <v>0.04586683811810605</v>
+        <v>0.03107099427955203</v>
       </c>
       <c r="P3">
-        <v>0.04586683811810605</v>
+        <v>0.03107099427955203</v>
       </c>
       <c r="Q3">
-        <v>145.373268870306</v>
+        <v>101.309976636516</v>
       </c>
       <c r="R3">
-        <v>1308.359419832754</v>
+        <v>911.7897897286439</v>
       </c>
       <c r="S3">
-        <v>0.018712009315168</v>
+        <v>0.01008021157716805</v>
       </c>
       <c r="T3">
-        <v>0.018712009315168</v>
+        <v>0.01008021157716805</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>67.77251700000001</v>
+        <v>47.23036199999999</v>
       </c>
       <c r="H4">
-        <v>203.317551</v>
+        <v>141.691086</v>
       </c>
       <c r="I4">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="J4">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>14.085853</v>
       </c>
       <c r="O4">
-        <v>0.1003990858983372</v>
+        <v>0.06801208785281536</v>
       </c>
       <c r="P4">
-        <v>0.1003990858983372</v>
+        <v>0.06801208785281536</v>
       </c>
       <c r="Q4">
-        <v>318.2112373006671</v>
+        <v>221.759978756262</v>
       </c>
       <c r="R4">
-        <v>2863.901135706003</v>
+        <v>1995.839808806358</v>
       </c>
       <c r="S4">
-        <v>0.04095919203600889</v>
+        <v>0.02206483092214725</v>
       </c>
       <c r="T4">
-        <v>0.04095919203600889</v>
+        <v>0.02206483092214725</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>182.932819</v>
       </c>
       <c r="I5">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="J5">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.92590366666667</v>
+        <v>62.19572466666667</v>
       </c>
       <c r="N5">
-        <v>119.777711</v>
+        <v>186.587174</v>
       </c>
       <c r="O5">
-        <v>0.8537340759835568</v>
+        <v>0.9009169178676326</v>
       </c>
       <c r="P5">
-        <v>0.8537340759835568</v>
+        <v>0.9009169178676325</v>
       </c>
       <c r="Q5">
-        <v>2434.58603628859</v>
+        <v>3792.54641434039</v>
       </c>
       <c r="R5">
-        <v>21911.27432659731</v>
+        <v>34132.91772906351</v>
       </c>
       <c r="S5">
-        <v>0.3133725817932359</v>
+        <v>0.377353460557425</v>
       </c>
       <c r="T5">
-        <v>0.3133725817932358</v>
+        <v>0.377353460557425</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>182.932819</v>
       </c>
       <c r="I6">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="J6">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.435054</v>
       </c>
       <c r="O6">
-        <v>0.04586683811810605</v>
+        <v>0.03107099427955203</v>
       </c>
       <c r="P6">
-        <v>0.04586683811810605</v>
+        <v>0.03107099427955203</v>
       </c>
       <c r="Q6">
         <v>130.798063181914</v>
@@ -818,10 +818,10 @@
         <v>1177.182568637226</v>
       </c>
       <c r="S6">
-        <v>0.01683593273842818</v>
+        <v>0.0130142380299618</v>
       </c>
       <c r="T6">
-        <v>0.01683593273842818</v>
+        <v>0.0130142380299618</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>182.932819</v>
       </c>
       <c r="I7">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="J7">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>14.085853</v>
       </c>
       <c r="O7">
-        <v>0.1003990858983372</v>
+        <v>0.06801208785281536</v>
       </c>
       <c r="P7">
-        <v>0.1003990858983372</v>
+        <v>0.06801208785281536</v>
       </c>
       <c r="Q7">
         <v>286.3071997010675</v>
@@ -880,10 +880,10 @@
         <v>2576.764797309607</v>
       </c>
       <c r="S7">
-        <v>0.03685260040885233</v>
+        <v>0.02848719588010474</v>
       </c>
       <c r="T7">
-        <v>0.03685260040885233</v>
+        <v>0.02848719588010474</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>112.121186</v>
       </c>
       <c r="I8">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907278</v>
       </c>
       <c r="J8">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907277</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.92590366666667</v>
+        <v>62.19572466666667</v>
       </c>
       <c r="N8">
-        <v>119.777711</v>
+        <v>186.587174</v>
       </c>
       <c r="O8">
-        <v>0.8537340759835568</v>
+        <v>0.9009169178676326</v>
       </c>
       <c r="P8">
-        <v>0.8537340759835568</v>
+        <v>0.9009169178676325</v>
       </c>
       <c r="Q8">
-        <v>1492.179890409472</v>
+        <v>2324.486137918708</v>
       </c>
       <c r="R8">
-        <v>13429.61901368525</v>
+        <v>20920.37524126836</v>
       </c>
       <c r="S8">
-        <v>0.1920689011551263</v>
+        <v>0.2312833627677422</v>
       </c>
       <c r="T8">
-        <v>0.1920689011551263</v>
+        <v>0.2312833627677421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>112.121186</v>
       </c>
       <c r="I9">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907278</v>
       </c>
       <c r="J9">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907277</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>6.435054</v>
       </c>
       <c r="O9">
-        <v>0.04586683811810605</v>
+        <v>0.03107099427955203</v>
       </c>
       <c r="P9">
-        <v>0.04586683811810605</v>
+        <v>0.03107099427955203</v>
       </c>
       <c r="Q9">
         <v>80.16732071711601</v>
@@ -1004,10 +1004,10 @@
         <v>721.5058864540441</v>
       </c>
       <c r="S9">
-        <v>0.01031889606450987</v>
+        <v>0.007976544672422181</v>
       </c>
       <c r="T9">
-        <v>0.01031889606450987</v>
+        <v>0.007976544672422179</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>112.121186</v>
       </c>
       <c r="I10">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907278</v>
       </c>
       <c r="J10">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907277</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>14.085853</v>
       </c>
       <c r="O10">
-        <v>0.1003990858983372</v>
+        <v>0.06801208785281536</v>
       </c>
       <c r="P10">
-        <v>0.1003990858983372</v>
+        <v>0.06801208785281536</v>
       </c>
       <c r="Q10">
         <v>175.4802826868509</v>
@@ -1066,10 +1066,10 @@
         <v>1579.322544181658</v>
       </c>
       <c r="S10">
-        <v>0.02258729345347599</v>
+        <v>0.01746006105056337</v>
       </c>
       <c r="T10">
-        <v>0.02258729345347599</v>
+        <v>0.01746006105056336</v>
       </c>
     </row>
   </sheetData>
